--- a/3.原创-办公安全/2.办公安全方案-持续更新.xlsx
+++ b/3.原创-办公安全/2.办公安全方案-持续更新.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7130" tabRatio="930" activeTab="6"/>
+    <workbookView windowWidth="19200" windowHeight="7130" tabRatio="930" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="总览" sheetId="14" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="103">
   <si>
     <t>办公安全项</t>
   </si>
@@ -62,6 +62,9 @@
     <t>通用安全意识培训</t>
   </si>
   <si>
+    <t>信息安全意识</t>
+  </si>
+  <si>
     <t>安全使用培训、异常发现，处理，上报，危害等</t>
   </si>
   <si>
@@ -137,6 +140,9 @@
     <t>终端补丁管理</t>
   </si>
   <si>
+    <t>主机安全</t>
+  </si>
+  <si>
     <t>系统</t>
   </si>
   <si>
@@ -173,7 +179,7 @@
     <t>特殊账号（如社交平台、软件商城账户）相关工作应建设自动化的有审批的工作流进行处理</t>
   </si>
   <si>
-    <t>邮箱</t>
+    <t>通用系统如（邮箱）</t>
   </si>
   <si>
     <t>弱口令、公共账号</t>
@@ -182,6 +188,9 @@
     <t>管理员设置密码规则，渗透测试，社工字典，弱口令字典</t>
   </si>
   <si>
+    <t>部门职业系统如下</t>
+  </si>
+  <si>
     <t>git</t>
   </si>
   <si>
@@ -200,25 +209,28 @@
     <t>发版审计</t>
   </si>
   <si>
+    <t>客服系统</t>
+  </si>
+  <si>
+    <t>敏感信息脱敏</t>
+  </si>
+  <si>
+    <t>财务系统</t>
+  </si>
+  <si>
+    <t>账户管理，权限管理</t>
+  </si>
+  <si>
+    <t>业务衍生系统如下</t>
+  </si>
+  <si>
     <t>业务后台系统</t>
   </si>
   <si>
-    <t>账户管理，权限管理</t>
-  </si>
-  <si>
     <t>账户权限申请流程，纪录账户</t>
   </si>
   <si>
     <t>账户审计，权限审计，行为审计</t>
-  </si>
-  <si>
-    <t>客服系统</t>
-  </si>
-  <si>
-    <t>敏感信息脱敏</t>
-  </si>
-  <si>
-    <t>财务系统</t>
   </si>
   <si>
     <t>云服务账户（放到云安全部分，操作审计安全监控等）</t>
@@ -1387,7 +1399,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89090909090909" defaultRowHeight="14" outlineLevelRow="5" outlineLevelCol="1"/>
@@ -1401,9 +1413,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1411,7 +1426,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1419,17 +1434,17 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1444,7 +1459,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="3"/>
@@ -1457,66 +1472,66 @@
   <sheetData>
     <row r="1" customFormat="1" spans="1:4">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="3:3">
       <c r="C3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="3:3">
       <c r="C4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="3:3">
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="3:3">
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="3:3">
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="3:3">
       <c r="C8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="3:3">
       <c r="C9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="3:3">
       <c r="C10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="3:3">
       <c r="C11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="3:3">
       <c r="C12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1528,13 +1543,13 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="7" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="12.6363636363636" customWidth="1"/>
     <col min="2" max="2" width="14.0909090909091" customWidth="1"/>
@@ -1544,51 +1559,56 @@
   <sheetData>
     <row r="1" customFormat="1" spans="1:4">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="3:3">
       <c r="C2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="3:3">
       <c r="C3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="3:3">
       <c r="C4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="3:3">
       <c r="C5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="3:3">
       <c r="C6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="3:3">
       <c r="C7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="3:3">
       <c r="C8" t="s">
-        <v>37</v>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="3:3">
+      <c r="C10" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1602,8 +1622,8 @@
   <sheetPr/>
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="5"/>
@@ -1617,56 +1637,56 @@
   <sheetData>
     <row r="1" customFormat="1" spans="1:5">
       <c r="A1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" customFormat="1" spans="4:4">
       <c r="D2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" customFormat="1" spans="4:4">
       <c r="D3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" customFormat="1" spans="2:4">
       <c r="B4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" customFormat="1" spans="2:4">
       <c r="B5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D5" s="4"/>
     </row>
     <row r="6" customFormat="1" spans="2:4">
       <c r="B6" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" customFormat="1" spans="2:4">
       <c r="B7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D7" s="4"/>
     </row>
@@ -1675,7 +1695,7 @@
     </row>
     <row r="9" customFormat="1" spans="2:4">
       <c r="B9" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D9" s="4"/>
     </row>
@@ -1684,7 +1704,7 @@
     </row>
     <row r="11" customFormat="1" spans="2:4">
       <c r="B11" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D11" s="4"/>
     </row>
@@ -1693,77 +1713,87 @@
     </row>
     <row r="13" spans="3:3">
       <c r="C13" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" ht="42" spans="1:5">
       <c r="A16" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E16" s="2"/>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="19" ht="28" spans="1:6">
       <c r="A19" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D19" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F19" s="2"/>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D20" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" t="s">
-        <v>59</v>
-      </c>
-      <c r="B21" t="s">
-        <v>60</v>
-      </c>
-      <c r="C21" t="s">
         <v>61</v>
-      </c>
-      <c r="D21" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
+        <v>62</v>
+      </c>
+      <c r="B22" t="s">
         <v>63</v>
-      </c>
-      <c r="B22" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
+        <v>64</v>
+      </c>
+      <c r="B23" t="s">
         <v>65</v>
       </c>
-      <c r="B23" t="s">
-        <v>60</v>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>67</v>
+      </c>
+      <c r="B26" t="s">
+        <v>65</v>
+      </c>
+      <c r="C26" t="s">
+        <v>68</v>
+      </c>
+      <c r="D26" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1777,8 +1807,8 @@
   <sheetPr/>
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="4"/>
@@ -1793,68 +1823,68 @@
   <sheetData>
     <row r="1" ht="22" customHeight="1" spans="1:1">
       <c r="A1" s="2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" ht="22" customHeight="1" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" ht="29" customHeight="1" spans="1:4">
       <c r="A3" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" ht="25" customHeight="1" spans="1:3">
       <c r="A4" s="2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" ht="26" customHeight="1" spans="1:1">
       <c r="A5" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" ht="27" customHeight="1" spans="1:1">
       <c r="A6" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" ht="32" customHeight="1" spans="1:1">
       <c r="A7" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" ht="31" customHeight="1" spans="1:1">
       <c r="A8" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" ht="36" customHeight="1" spans="1:5">
@@ -1901,43 +1931,43 @@
   <sheetPr/>
   <dimension ref="B2:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="7" outlineLevelCol="2"/>
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="2:3">
       <c r="B4" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C4" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -1953,7 +1983,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="4" outlineLevelCol="1"/>
@@ -1964,42 +1994,42 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B3" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B4" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B5" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>

--- a/3.原创-办公安全/2.办公安全方案-持续更新.xlsx
+++ b/3.原创-办公安全/2.办公安全方案-持续更新.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7130" tabRatio="930" activeTab="5"/>
+    <workbookView windowWidth="19200" windowHeight="7130" tabRatio="930" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="总览" sheetId="14" r:id="rId1"/>
@@ -13,8 +13,10 @@
     <sheet name="办公终端安全" sheetId="16" r:id="rId4"/>
     <sheet name="办公系统安全" sheetId="17" r:id="rId5"/>
     <sheet name="工作流安全" sheetId="11" r:id="rId6"/>
-    <sheet name="安全运营与管理" sheetId="3" r:id="rId7"/>
-    <sheet name="关联安全" sheetId="18" r:id="rId8"/>
+    <sheet name="身份权限安全" sheetId="19" r:id="rId7"/>
+    <sheet name="办公行为安全" sheetId="20" r:id="rId8"/>
+    <sheet name="安全运营与管理" sheetId="3" r:id="rId9"/>
+    <sheet name="关联安全" sheetId="18" r:id="rId10"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -1393,6 +1395,67 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="4" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="14.1818181818182" customWidth="1"/>
+    <col min="2" max="2" width="14.4545454545455" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
@@ -1458,8 +1521,8 @@
   <sheetPr/>
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="3"/>
@@ -1622,8 +1685,8 @@
   <sheetPr/>
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="5"/>
@@ -1805,10 +1868,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E21"/>
+  <dimension ref="A2:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="$A1:$XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="4"/>
@@ -1821,78 +1884,73 @@
     <col min="6" max="16384" width="8.72727272727273" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="22" customHeight="1" spans="1:1">
-      <c r="A1" s="2" t="s">
+    <row r="2" ht="22" customHeight="1" spans="1:1">
+      <c r="A2" s="2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="2" ht="22" customHeight="1" spans="1:2">
-      <c r="A2" s="2" t="s">
+    <row r="3" ht="22" customHeight="1" spans="1:2">
+      <c r="A3" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B3" s="2" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="3" ht="29" customHeight="1" spans="1:4">
-      <c r="A3" s="2" t="s">
+    <row r="4" ht="29" customHeight="1" spans="1:4">
+      <c r="A4" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B4" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="4" ht="25" customHeight="1" spans="1:3">
-      <c r="A4" s="2" t="s">
+    <row r="5" ht="25" customHeight="1" spans="1:3">
+      <c r="A5" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B5" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="5" ht="26" customHeight="1" spans="1:1">
-      <c r="A5" s="2" t="s">
+    <row r="6" ht="26" customHeight="1" spans="1:1">
+      <c r="A6" s="2" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="6" ht="27" customHeight="1" spans="1:1">
-      <c r="A6" s="2" t="s">
+    <row r="7" ht="27" customHeight="1" spans="1:1">
+      <c r="A7" s="2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="7" ht="32" customHeight="1" spans="1:1">
-      <c r="A7" s="2" t="s">
+    <row r="8" ht="32" customHeight="1" spans="1:1">
+      <c r="A8" s="2" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="8" ht="31" customHeight="1" spans="1:1">
-      <c r="A8" s="2" t="s">
+    <row r="9" ht="31" customHeight="1" spans="1:1">
+      <c r="A9" s="2" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="2" t="s">
+    <row r="10" spans="1:2">
+      <c r="A10" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B10" s="2" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="11" s="1" customFormat="1" ht="36" customHeight="1" spans="1:5">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" s="1" customFormat="1" spans="1:5">
+    <row r="12" s="1" customFormat="1" ht="17" customHeight="1" spans="1:5">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="E12" s="2"/>
@@ -1902,23 +1960,28 @@
       <c r="B13" s="2"/>
       <c r="E13" s="2"/>
     </row>
-    <row r="16" s="1" customFormat="1" spans="1:5">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="E16" s="2"/>
+    <row r="14" s="1" customFormat="1" spans="1:5">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="E14" s="2"/>
     </row>
     <row r="17" s="1" customFormat="1" spans="1:5">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" customFormat="1" spans="1:5">
+    <row r="18" s="1" customFormat="1" spans="1:5">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="E18" s="2"/>
     </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="3"/>
+    <row r="19" customFormat="1" spans="1:5">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="E19" s="2"/>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1927,6 +1990,38 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="B2:C8"/>
@@ -1975,65 +2070,4 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:B5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="4" outlineLevelCol="1"/>
-  <cols>
-    <col min="1" max="1" width="14.1818181818182" customWidth="1"/>
-    <col min="2" max="2" width="14.4545454545455" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>97</v>
-      </c>
-      <c r="B3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>99</v>
-      </c>
-      <c r="B4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>101</v>
-      </c>
-      <c r="B5" t="s">
-        <v>102</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
 </file>
--- a/3.原创-办公安全/2.办公安全方案-持续更新.xlsx
+++ b/3.原创-办公安全/2.办公安全方案-持续更新.xlsx
@@ -1522,7 +1522,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="3"/>

--- a/3.原创-办公安全/2.办公安全方案-持续更新.xlsx
+++ b/3.原创-办公安全/2.办公安全方案-持续更新.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7130" tabRatio="930" activeTab="2"/>
+    <workbookView windowWidth="19200" windowHeight="7130" tabRatio="930" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="总览" sheetId="14" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="111">
   <si>
     <t>办公安全项</t>
   </si>
@@ -58,6 +58,18 @@
     <t>增强安全意识，防范钓鱼诈骗等攻击</t>
   </si>
   <si>
+    <t>身份权限安全</t>
+  </si>
+  <si>
+    <t>动态管控身份权限，及时调整</t>
+  </si>
+  <si>
+    <t>办公行为安全</t>
+  </si>
+  <si>
+    <t>办公行为审计</t>
+  </si>
+  <si>
     <t>分类</t>
   </si>
   <si>
@@ -284,6 +296,18 @@
   </si>
   <si>
     <t>可能涉及敏感数据</t>
+  </si>
+  <si>
+    <t>IAM</t>
+  </si>
+  <si>
+    <t>SSO</t>
+  </si>
+  <si>
+    <t>零信任</t>
+  </si>
+  <si>
+    <t>借助系统日志实现审计</t>
   </si>
   <si>
     <t>逐步实现自动化</t>
@@ -957,6 +981,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -964,9 +991,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1320,7 +1344,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="7"/>
@@ -1374,20 +1398,36 @@
         <v>10</v>
       </c>
     </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+    </row>
     <row r="13" customHeight="1" spans="3:7">
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
     </row>
     <row r="17" spans="3:8">
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1412,42 +1452,42 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="B1" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B2" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="B3" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="B4" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="B5" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -1461,8 +1501,8 @@
   <sheetPr/>
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89090909090909" defaultRowHeight="14" outlineLevelRow="5" outlineLevelCol="1"/>
@@ -1473,15 +1513,15 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1489,7 +1529,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1497,17 +1537,17 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -1521,8 +1561,8 @@
   <sheetPr/>
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="3"/>
@@ -1535,66 +1575,66 @@
   <sheetData>
     <row r="1" customFormat="1" spans="1:4">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>20</v>
+        <v>23</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="D1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="3:3">
       <c r="C3" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="3:3">
       <c r="C4" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="3:3">
       <c r="C5" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="3:3">
       <c r="C6" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="3:3">
       <c r="C7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="3:3">
       <c r="C8" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="3:3">
       <c r="C9" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="3:3">
       <c r="C10" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="3:3">
       <c r="C11" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="3:3">
       <c r="C12" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1622,56 +1662,56 @@
   <sheetData>
     <row r="1" customFormat="1" spans="1:4">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>20</v>
+        <v>23</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="D1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="3:3">
       <c r="C2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="3:3">
       <c r="C3" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="3:3">
       <c r="C4" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="3:3">
       <c r="C5" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="3:3">
       <c r="C6" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="3:3">
       <c r="C7" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="3:3">
       <c r="C8" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="3:3">
       <c r="C10" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1686,7 +1726,7 @@
   <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="A1" sqref="$A1:$XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="5"/>
@@ -1700,163 +1740,163 @@
   <sheetData>
     <row r="1" customFormat="1" spans="1:5">
       <c r="A1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>20</v>
+        <v>23</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="E1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" customFormat="1" spans="4:4">
       <c r="D2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" customFormat="1" spans="4:4">
       <c r="D3" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" customFormat="1" spans="2:4">
       <c r="B4" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D4" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" customFormat="1" spans="2:4">
       <c r="B5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D5" s="4"/>
+        <v>49</v>
+      </c>
+      <c r="D5" s="1"/>
     </row>
     <row r="6" customFormat="1" spans="2:4">
       <c r="B6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>47</v>
+        <v>50</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="7" customFormat="1" spans="2:4">
       <c r="B7" t="s">
-        <v>48</v>
-      </c>
-      <c r="D7" s="4"/>
+        <v>52</v>
+      </c>
+      <c r="D7" s="1"/>
     </row>
     <row r="8" customFormat="1" spans="4:4">
-      <c r="D8" s="4"/>
+      <c r="D8" s="1"/>
     </row>
     <row r="9" customFormat="1" spans="2:4">
       <c r="B9" t="s">
-        <v>49</v>
-      </c>
-      <c r="D9" s="4"/>
+        <v>53</v>
+      </c>
+      <c r="D9" s="1"/>
     </row>
     <row r="10" customFormat="1" spans="4:4">
-      <c r="D10" s="4"/>
+      <c r="D10" s="1"/>
     </row>
     <row r="11" customFormat="1" spans="2:4">
       <c r="B11" t="s">
-        <v>50</v>
-      </c>
-      <c r="D11" s="4"/>
+        <v>54</v>
+      </c>
+      <c r="D11" s="1"/>
     </row>
     <row r="12" customFormat="1" spans="4:4">
-      <c r="D12" s="4"/>
+      <c r="D12" s="1"/>
     </row>
     <row r="13" spans="3:3">
       <c r="C13" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" ht="42" spans="1:5">
-      <c r="A16" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E16" s="2"/>
+      <c r="A16" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E16" s="3"/>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" ht="28" spans="1:6">
-      <c r="A19" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>58</v>
+      <c r="A19" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>62</v>
       </c>
       <c r="D19" t="s">
-        <v>59</v>
-      </c>
-      <c r="F19" s="2"/>
+        <v>63</v>
+      </c>
+      <c r="F19" s="3"/>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="D20" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B22" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B23" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B26" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C26" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D26" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -1871,117 +1911,117 @@
   <dimension ref="A2:E22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="20.5545454545455" style="2" customWidth="1"/>
-    <col min="2" max="2" width="24.2181818181818" style="2" customWidth="1"/>
-    <col min="3" max="3" width="14.8909090909091" style="1" customWidth="1"/>
-    <col min="4" max="4" width="22.0909090909091" style="1" customWidth="1"/>
-    <col min="5" max="5" width="19" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="8.72727272727273" style="1"/>
+    <col min="1" max="1" width="20.5545454545455" style="3" customWidth="1"/>
+    <col min="2" max="2" width="24.2181818181818" style="3" customWidth="1"/>
+    <col min="3" max="3" width="14.8909090909091" style="2" customWidth="1"/>
+    <col min="4" max="4" width="22.0909090909091" style="2" customWidth="1"/>
+    <col min="5" max="5" width="19" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="8.72727272727273" style="2"/>
   </cols>
   <sheetData>
     <row r="2" ht="22" customHeight="1" spans="1:1">
-      <c r="A2" s="2" t="s">
-        <v>71</v>
+      <c r="A2" s="3" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="3" ht="22" customHeight="1" spans="1:2">
-      <c r="A3" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>73</v>
+      <c r="A3" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="4" ht="29" customHeight="1" spans="1:4">
-      <c r="A4" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>77</v>
+      <c r="A4" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="5" ht="25" customHeight="1" spans="1:3">
-      <c r="A5" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>80</v>
+      <c r="A5" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="6" ht="26" customHeight="1" spans="1:1">
-      <c r="A6" s="2" t="s">
-        <v>81</v>
+      <c r="A6" s="3" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="7" ht="27" customHeight="1" spans="1:1">
-      <c r="A7" s="2" t="s">
-        <v>82</v>
+      <c r="A7" s="3" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="8" ht="32" customHeight="1" spans="1:1">
-      <c r="A8" s="2" t="s">
-        <v>83</v>
+      <c r="A8" s="3" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="9" ht="31" customHeight="1" spans="1:1">
-      <c r="A9" s="2" t="s">
-        <v>84</v>
+      <c r="A9" s="3" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="12" s="1" customFormat="1" ht="17" customHeight="1" spans="1:5">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" s="1" customFormat="1" spans="1:5">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="E13" s="2"/>
-    </row>
-    <row r="14" s="1" customFormat="1" spans="1:5">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="E14" s="2"/>
-    </row>
-    <row r="17" s="1" customFormat="1" spans="1:5">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="E17" s="2"/>
-    </row>
-    <row r="18" s="1" customFormat="1" spans="1:5">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="E18" s="2"/>
+      <c r="A10" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" s="2" customFormat="1" ht="17" customHeight="1" spans="1:5">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" s="2" customFormat="1" spans="1:5">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" s="2" customFormat="1" spans="1:5">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="E14" s="3"/>
+    </row>
+    <row r="17" s="2" customFormat="1" spans="1:5">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="E17" s="3"/>
+    </row>
+    <row r="18" s="2" customFormat="1" spans="1:5">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="E18" s="3"/>
     </row>
     <row r="19" customFormat="1" spans="1:5">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="E19" s="2"/>
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="E19" s="3"/>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="3"/>
+      <c r="A22" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1992,14 +2032,47 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A1" sqref="$A1:$XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="5" outlineLevelCol="4"/>
+  <sheetData>
+    <row r="1" customFormat="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="4:4">
+      <c r="D4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="4:4">
+      <c r="D5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6" spans="4:4">
+      <c r="D6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -2008,14 +2081,47 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="4" outlineLevelCol="4"/>
+  <sheetData>
+    <row r="1" customFormat="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="4:4">
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="4:4">
+      <c r="D4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" spans="4:4">
+      <c r="D5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -2034,35 +2140,35 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="2:3">
       <c r="B4" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="C4" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/3.原创-办公安全/2.办公安全方案-持续更新.xlsx
+++ b/3.原创-办公安全/2.办公安全方案-持续更新.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7130" tabRatio="930" activeTab="1"/>
+    <workbookView windowWidth="19200" windowHeight="7130" tabRatio="930" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="总览" sheetId="14" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="112">
   <si>
     <t>办公安全项</t>
   </si>
@@ -305,6 +305,9 @@
   </si>
   <si>
     <t>零信任</t>
+  </si>
+  <si>
+    <t>最小授权</t>
   </si>
   <si>
     <t>借助系统日志实现审计</t>
@@ -1452,10 +1455,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1463,31 +1466,31 @@
         <v>48</v>
       </c>
       <c r="B2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B5" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -1501,7 +1504,7 @@
   <sheetPr/>
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
@@ -2032,13 +2035,13 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="7" outlineLevelCol="4"/>
   <sheetData>
     <row r="1" customFormat="1" spans="1:5">
       <c r="A1" t="s">
@@ -2070,6 +2073,11 @@
     <row r="6" spans="4:4">
       <c r="D6" t="s">
         <v>93</v>
+      </c>
+    </row>
+    <row r="8" spans="4:4">
+      <c r="D8" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -2113,7 +2121,7 @@
     </row>
     <row r="4" spans="4:4">
       <c r="D4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="4:4">
@@ -2140,35 +2148,35 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="2:3">
       <c r="B4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
